--- a/Bank/中医内科学/胃/Bank_痞满.xlsx
+++ b/Bank/中医内科学/胃/Bank_痞满.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/胃/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
   <si>
     <t>“脏寒生满病”，语出</t>
   </si>
@@ -340,12 +351,18 @@
   </si>
   <si>
     <t>诊断：①痞满（胃痞）；②胃痛。辨证：寒热虚实错杂证。分析：因患者以胃皖痞满胀闷为主症，胃镜检查有慢性胃窦炎，故诊为痞满（胃痞），因有较长时间的胃痛史，就诊时仍有胃痛，故也可作出两个病名诊断：痞满，胃痛。患者胃病病程较长，已历9年，久病耗伤胃气，加之饮食常无规律，致脾胃虚弱。现胃皖痞满胀闷饭后明显，大便偏稀，B超检査有胃下垂，脉沉弱，皆为脾胃气虚之征；胃热，畏辣热饮食，唇干红裂，为热；胃皖畏寒凉饮食，为有寒。本病病机为脾胃气虚，寒热互结于胃皖，脾胃功能失调，升降失司，胃气壅塞。因胃气壅塞，不通则通，故也可兼见胃痛。治法：辛开苦降，寒热并用，补泻兼施。方药：半夏泻心汤加减。黄苓I5g黄连5g干姜10g法半夏10g金银花15g 蒲公英30g沙参10g白术10g 鸡内金10g 锻瓦楞子15g延胡索15g甘草5g</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,12 +677,12 @@
   <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -681,6 +698,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1">
+        <v>49</v>
+      </c>
       <c r="H1" t="s">
         <v>9</v>
       </c>
@@ -691,7 +711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -707,6 +727,9 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="G2">
+        <v>49</v>
+      </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
@@ -717,7 +740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -733,6 +756,9 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
+      <c r="G3">
+        <v>49</v>
+      </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
@@ -743,7 +769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -759,6 +785,9 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
+      <c r="G4">
+        <v>49</v>
+      </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
@@ -769,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -785,6 +814,9 @@
       <c r="F5" t="s">
         <v>26</v>
       </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
@@ -795,7 +827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -811,6 +843,9 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
@@ -821,7 +856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -837,6 +872,9 @@
       <c r="F7" t="s">
         <v>36</v>
       </c>
+      <c r="G7">
+        <v>49</v>
+      </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
@@ -847,7 +885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -863,6 +901,9 @@
       <c r="F8" t="s">
         <v>41</v>
       </c>
+      <c r="G8">
+        <v>49</v>
+      </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
@@ -873,7 +914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -889,6 +930,9 @@
       <c r="F9" t="s">
         <v>46</v>
       </c>
+      <c r="G9">
+        <v>49</v>
+      </c>
       <c r="H9" t="s">
         <v>9</v>
       </c>
@@ -899,7 +943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -915,6 +959,9 @@
       <c r="F10" t="s">
         <v>49</v>
       </c>
+      <c r="G10">
+        <v>49</v>
+      </c>
       <c r="H10" t="s">
         <v>9</v>
       </c>
@@ -925,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -941,6 +988,9 @@
       <c r="F11" t="s">
         <v>54</v>
       </c>
+      <c r="G11">
+        <v>49</v>
+      </c>
       <c r="H11" t="s">
         <v>85</v>
       </c>
@@ -954,7 +1004,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>57</v>
       </c>
@@ -970,6 +1020,9 @@
       <c r="F12" t="s">
         <v>61</v>
       </c>
+      <c r="G12">
+        <v>49</v>
+      </c>
       <c r="H12" t="s">
         <v>85</v>
       </c>
@@ -983,7 +1036,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>63</v>
       </c>
@@ -999,6 +1052,9 @@
       <c r="F13" t="s">
         <v>67</v>
       </c>
+      <c r="G13">
+        <v>49</v>
+      </c>
       <c r="H13" t="s">
         <v>85</v>
       </c>
@@ -1012,7 +1068,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>69</v>
       </c>
@@ -1028,6 +1084,9 @@
       <c r="F14" t="s">
         <v>73</v>
       </c>
+      <c r="G14">
+        <v>49</v>
+      </c>
       <c r="H14" t="s">
         <v>85</v>
       </c>
@@ -1041,7 +1100,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>75</v>
       </c>
@@ -1057,6 +1116,9 @@
       <c r="F15" t="s">
         <v>79</v>
       </c>
+      <c r="G15">
+        <v>49</v>
+      </c>
       <c r="H15" t="s">
         <v>85</v>
       </c>
@@ -1070,7 +1132,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>81</v>
       </c>
@@ -1086,6 +1148,9 @@
       <c r="F16" t="s">
         <v>83</v>
       </c>
+      <c r="G16">
+        <v>49</v>
+      </c>
       <c r="H16" t="s">
         <v>85</v>
       </c>
@@ -1099,7 +1164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -1115,6 +1180,9 @@
       <c r="F17" t="s">
         <v>89</v>
       </c>
+      <c r="G17">
+        <v>49</v>
+      </c>
       <c r="H17" t="s">
         <v>85</v>
       </c>
@@ -1128,12 +1196,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>92</v>
       </c>
+      <c r="G18">
+        <v>49</v>
+      </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1142,10 +1213,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>99</v>
       </c>
+      <c r="G19">
+        <v>49</v>
+      </c>
       <c r="H19" t="s">
         <v>93</v>
       </c>
@@ -1156,10 +1230,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>100</v>
       </c>
+      <c r="G20">
+        <v>49</v>
+      </c>
       <c r="H20" t="s">
         <v>93</v>
       </c>
@@ -1170,10 +1247,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>101</v>
       </c>
+      <c r="G21">
+        <v>49</v>
+      </c>
       <c r="H21" t="s">
         <v>93</v>
       </c>
@@ -1184,12 +1264,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>102</v>
       </c>
+      <c r="G22">
+        <v>49</v>
+      </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="J22">
         <v>1</v>
